--- a/biology/Médecine/Kératose_séborrhéique/Kératose_séborrhéique.xlsx
+++ b/biology/Médecine/Kératose_séborrhéique/Kératose_séborrhéique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_s%C3%A9borrh%C3%A9ique</t>
+          <t>Kératose_séborrhéique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kératose séborrhéique est une affection dermatologique bénigne qui se traduit par la présence sur la peau de verrues séborrhéiques, des petites excroissances non cancéreuses de couleur brune. Elles sont très fréquentes chez les personnes d’âge moyen ou plus âgées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_s%C3%A9borrh%C3%A9ique</t>
+          <t>Kératose_séborrhéique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles peuvent être brunes ou noires et apparaitre sur le visage (et notamment les tempes), le cuir chevelu, le cou[1], le tronc, les bras ou les jambes[2], dans des zones de frottement[1].
-Chez les personnes de peau foncée, ces excroissances peuvent être nombreuses sur les pommettes ; on parle parfois de « dermatose papuleuse noire »[3].
-Liée à une sécrétion augmentée d'endothéline ET-1, leur cause première reste à déterminer[4],[5]. Des mutations d'un gène, FGFR3, qui code un récepteur aux facteurs de croissance, sont retrouvées dans 40 % des cas.[réf. souhaitée]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles peuvent être brunes ou noires et apparaitre sur le visage (et notamment les tempes), le cuir chevelu, le cou, le tronc, les bras ou les jambes, dans des zones de frottement.
+Chez les personnes de peau foncée, ces excroissances peuvent être nombreuses sur les pommettes ; on parle parfois de « dermatose papuleuse noire ».
+Liée à une sécrétion augmentée d'endothéline ET-1, leur cause première reste à déterminer,. Des mutations d'un gène, FGFR3, qui code un récepteur aux facteurs de croissance, sont retrouvées dans 40 % des cas.[réf. souhaitée]
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose_s%C3%A9borrh%C3%A9ique</t>
+          <t>Kératose_séborrhéique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elles ne nécessitent pas de traitement sauf irritations ou démangeaisons mais peuvent être retirée simplement par[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elles ne nécessitent pas de traitement sauf irritations ou démangeaisons mais peuvent être retirée simplement par :
 cryothérapie (azote liquide) ;
 électrodessication (bistouri électrique).</t>
         </is>
